--- a/학습자료/단답형/전공 기출변형.xlsx
+++ b/학습자료/단답형/전공 기출변형.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\Private-Quizlet\학습자료\단답형\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B2A9F70-CB2C-4E72-9C4A-0490D9297216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEC49709-7B69-4CC5-BD1A-5ADBE6D5E69C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -582,10 +582,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>지구 온난화의 결과로 여름철 극지바으이 빙하 면적 감소는 강화된다</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>강화//약화</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1128,6 +1124,9 @@
   <si>
     <t>모델의 기후 분포와의 차이와//전지구 관측 평균기후 값과</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>지구 온난화의 결과로 여름철 극지방의 빙하 면적 감소는 강화된다</t>
   </si>
 </sst>
 </file>
@@ -1516,7 +1515,7 @@
   <dimension ref="A1:D96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C2:C30"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1546,7 +1545,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D2">
         <v>-1</v>
@@ -1560,7 +1559,7 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D3">
         <v>-1</v>
@@ -1574,7 +1573,7 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D4">
         <v>-1</v>
@@ -1588,7 +1587,7 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D5">
         <v>-1</v>
@@ -1602,7 +1601,7 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D6">
         <v>-1</v>
@@ -1616,7 +1615,7 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1630,7 +1629,7 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D8">
         <v>-1</v>
@@ -1644,7 +1643,7 @@
         <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D9">
         <v>-1</v>
@@ -1658,7 +1657,7 @@
         <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D10">
         <v>-1</v>
@@ -1672,7 +1671,7 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D11">
         <v>-1</v>
@@ -1686,7 +1685,7 @@
         <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D12">
         <v>-1</v>
@@ -1700,7 +1699,7 @@
         <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D13">
         <v>-1</v>
@@ -1714,7 +1713,7 @@
         <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D14">
         <v>-1</v>
@@ -1728,7 +1727,7 @@
         <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D15">
         <v>-1</v>
@@ -1742,7 +1741,7 @@
         <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D16">
         <v>-1</v>
@@ -1756,7 +1755,7 @@
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D17">
         <v>-1</v>
@@ -1770,7 +1769,7 @@
         <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D18">
         <v>-1</v>
@@ -1784,7 +1783,7 @@
         <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D19">
         <v>-1</v>
@@ -1798,7 +1797,7 @@
         <v>40</v>
       </c>
       <c r="C20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D20">
         <v>-1</v>
@@ -1812,7 +1811,7 @@
         <v>42</v>
       </c>
       <c r="C21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D21">
         <v>-1</v>
@@ -1826,7 +1825,7 @@
         <v>44</v>
       </c>
       <c r="C22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D22">
         <v>-1</v>
@@ -1840,7 +1839,7 @@
         <v>46</v>
       </c>
       <c r="C23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D23">
         <v>-1</v>
@@ -1854,7 +1853,7 @@
         <v>48</v>
       </c>
       <c r="C24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D24">
         <v>-1</v>
@@ -1868,7 +1867,7 @@
         <v>50</v>
       </c>
       <c r="C25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D25">
         <v>-1</v>
@@ -1882,7 +1881,7 @@
         <v>52</v>
       </c>
       <c r="C26" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D26">
         <v>-1</v>
@@ -1896,7 +1895,7 @@
         <v>52</v>
       </c>
       <c r="C27" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D27">
         <v>-1</v>
@@ -1910,7 +1909,7 @@
         <v>55</v>
       </c>
       <c r="C28" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D28">
         <v>-1</v>
@@ -1924,7 +1923,7 @@
         <v>57</v>
       </c>
       <c r="C29" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -1938,7 +1937,7 @@
         <v>59</v>
       </c>
       <c r="C30" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -1952,7 +1951,7 @@
         <v>61</v>
       </c>
       <c r="C31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.45">
@@ -1963,7 +1962,7 @@
         <v>63</v>
       </c>
       <c r="C32" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
@@ -1974,7 +1973,7 @@
         <v>65</v>
       </c>
       <c r="C33" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.45">
@@ -1985,7 +1984,7 @@
         <v>67</v>
       </c>
       <c r="C34" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
@@ -1996,7 +1995,7 @@
         <v>69</v>
       </c>
       <c r="C35" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.45">
@@ -2007,7 +2006,7 @@
         <v>71</v>
       </c>
       <c r="C36" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.45">
@@ -2018,7 +2017,7 @@
         <v>73</v>
       </c>
       <c r="C37" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.45">
@@ -2029,7 +2028,7 @@
         <v>75</v>
       </c>
       <c r="C38" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.45">
@@ -2040,7 +2039,7 @@
         <v>77</v>
       </c>
       <c r="C39" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.45">
@@ -2051,7 +2050,7 @@
         <v>79</v>
       </c>
       <c r="C40" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.45">
@@ -2062,7 +2061,7 @@
         <v>81</v>
       </c>
       <c r="C41" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.45">
@@ -2073,7 +2072,7 @@
         <v>82</v>
       </c>
       <c r="C42" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.45">
@@ -2084,7 +2083,7 @@
         <v>85</v>
       </c>
       <c r="C43" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.45">
@@ -2095,7 +2094,7 @@
         <v>85</v>
       </c>
       <c r="C44" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.45">
@@ -2106,7 +2105,7 @@
         <v>88</v>
       </c>
       <c r="C45" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.45">
@@ -2117,7 +2116,7 @@
         <v>90</v>
       </c>
       <c r="C46" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
@@ -2128,7 +2127,7 @@
         <v>92</v>
       </c>
       <c r="C47" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.45">
@@ -2139,535 +2138,535 @@
         <v>92</v>
       </c>
       <c r="C48" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
+        <v>179</v>
+      </c>
+      <c r="B49" t="s">
         <v>94</v>
       </c>
-      <c r="B49" t="s">
-        <v>95</v>
-      </c>
       <c r="C49" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
+        <v>95</v>
+      </c>
+      <c r="B50" t="s">
         <v>96</v>
       </c>
-      <c r="B50" t="s">
-        <v>97</v>
-      </c>
       <c r="C50" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
+        <v>97</v>
+      </c>
+      <c r="B51" t="s">
         <v>98</v>
       </c>
-      <c r="B51" t="s">
-        <v>99</v>
-      </c>
       <c r="C51" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B52" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C52" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
+        <v>100</v>
+      </c>
+      <c r="B53" t="s">
         <v>101</v>
       </c>
-      <c r="B53" t="s">
-        <v>102</v>
-      </c>
       <c r="C53" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
+        <v>102</v>
+      </c>
+      <c r="B54" t="s">
         <v>103</v>
       </c>
-      <c r="B54" t="s">
-        <v>104</v>
-      </c>
       <c r="C54" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
+        <v>104</v>
+      </c>
+      <c r="B55" t="s">
         <v>105</v>
       </c>
-      <c r="B55" t="s">
-        <v>106</v>
-      </c>
       <c r="C55" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B56" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C56" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
+        <v>107</v>
+      </c>
+      <c r="B57" t="s">
         <v>108</v>
       </c>
-      <c r="B57" t="s">
-        <v>109</v>
-      </c>
       <c r="C57" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
+        <v>109</v>
+      </c>
+      <c r="B58" t="s">
         <v>110</v>
       </c>
-      <c r="B58" t="s">
-        <v>111</v>
-      </c>
       <c r="C58" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
+        <v>111</v>
+      </c>
+      <c r="B59" t="s">
         <v>112</v>
       </c>
-      <c r="B59" t="s">
-        <v>113</v>
-      </c>
       <c r="C59" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
+        <v>113</v>
+      </c>
+      <c r="B60" t="s">
         <v>114</v>
       </c>
-      <c r="B60" t="s">
-        <v>115</v>
-      </c>
       <c r="C60" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
+        <v>115</v>
+      </c>
+      <c r="B61" t="s">
         <v>116</v>
       </c>
-      <c r="B61" t="s">
-        <v>117</v>
-      </c>
       <c r="C61" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B62" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C62" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
+        <v>120</v>
+      </c>
+      <c r="B63" t="s">
         <v>121</v>
       </c>
-      <c r="B63" t="s">
-        <v>122</v>
-      </c>
       <c r="C63" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
+        <v>118</v>
+      </c>
+      <c r="B64" t="s">
         <v>119</v>
       </c>
-      <c r="B64" t="s">
-        <v>120</v>
-      </c>
       <c r="C64" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B65" t="s">
         <v>77</v>
       </c>
       <c r="C65" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
+        <v>123</v>
+      </c>
+      <c r="B66" t="s">
         <v>124</v>
       </c>
-      <c r="B66" t="s">
-        <v>125</v>
-      </c>
       <c r="C66" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
+        <v>125</v>
+      </c>
+      <c r="B67" t="s">
         <v>126</v>
       </c>
-      <c r="B67" t="s">
-        <v>127</v>
-      </c>
       <c r="C67" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
+        <v>130</v>
+      </c>
+      <c r="B68" t="s">
         <v>131</v>
       </c>
-      <c r="B68" t="s">
-        <v>132</v>
-      </c>
       <c r="C68" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
+        <v>132</v>
+      </c>
+      <c r="B69" t="s">
         <v>133</v>
       </c>
-      <c r="B69" t="s">
-        <v>134</v>
-      </c>
       <c r="C69" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B70" t="s">
         <v>77</v>
       </c>
       <c r="C70" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
+        <v>135</v>
+      </c>
+      <c r="B71" t="s">
         <v>136</v>
       </c>
-      <c r="B71" t="s">
-        <v>137</v>
-      </c>
       <c r="C71" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
+        <v>137</v>
+      </c>
+      <c r="B72" t="s">
         <v>138</v>
       </c>
-      <c r="B72" t="s">
-        <v>139</v>
-      </c>
       <c r="C72" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
+        <v>139</v>
+      </c>
+      <c r="B73" t="s">
         <v>140</v>
       </c>
-      <c r="B73" t="s">
-        <v>141</v>
-      </c>
       <c r="C73" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
+        <v>141</v>
+      </c>
+      <c r="B74" t="s">
         <v>142</v>
       </c>
-      <c r="B74" t="s">
-        <v>143</v>
-      </c>
       <c r="C74" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
+        <v>143</v>
+      </c>
+      <c r="B75" t="s">
         <v>144</v>
       </c>
-      <c r="B75" t="s">
-        <v>145</v>
-      </c>
       <c r="C75" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B76" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C76" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
+        <v>147</v>
+      </c>
+      <c r="B77" t="s">
         <v>148</v>
       </c>
-      <c r="B77" t="s">
-        <v>149</v>
-      </c>
       <c r="C77" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B78" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C78" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
+        <v>151</v>
+      </c>
+      <c r="B79" t="s">
         <v>152</v>
       </c>
-      <c r="B79" t="s">
-        <v>153</v>
-      </c>
       <c r="C79" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
+        <v>153</v>
+      </c>
+      <c r="B80" t="s">
         <v>154</v>
       </c>
-      <c r="B80" t="s">
-        <v>155</v>
-      </c>
       <c r="C80" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
+        <v>155</v>
+      </c>
+      <c r="B81" t="s">
         <v>156</v>
       </c>
-      <c r="B81" t="s">
-        <v>157</v>
-      </c>
       <c r="C81" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
+        <v>157</v>
+      </c>
+      <c r="B82" t="s">
         <v>158</v>
       </c>
-      <c r="B82" t="s">
-        <v>159</v>
-      </c>
       <c r="C82" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B83" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C83" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B84" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C84" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
+        <v>161</v>
+      </c>
+      <c r="B85" t="s">
         <v>162</v>
       </c>
-      <c r="B85" t="s">
-        <v>163</v>
-      </c>
       <c r="C85" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B86" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C86" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B87" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C87" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B88" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C88" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B89" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C89" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B90" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C90" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
+        <v>170</v>
+      </c>
+      <c r="B91" t="s">
         <v>171</v>
       </c>
-      <c r="B91" t="s">
-        <v>172</v>
-      </c>
       <c r="C91" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
+        <v>172</v>
+      </c>
+      <c r="B92" t="s">
         <v>173</v>
       </c>
-      <c r="B92" t="s">
-        <v>174</v>
-      </c>
       <c r="C92" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B93" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C93" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B94" t="s">
         <v>77</v>
       </c>
       <c r="C94" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B95" t="s">
         <v>77</v>
       </c>
       <c r="C95" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
+        <v>177</v>
+      </c>
+      <c r="B96" t="s">
         <v>178</v>
       </c>
-      <c r="B96" t="s">
-        <v>179</v>
-      </c>
       <c r="C96" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
